--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed4/result_data_RandomForest.xlsx
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.2939</v>
+        <v>-10.30360000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.04589999999999</v>
+        <v>-11.80309999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.40829999999999</v>
+        <v>-12.37349999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.47729999999999</v>
+        <v>-12.38869999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.0969</v>
+        <v>-11.1422</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.4682</v>
+        <v>-12.5783</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.01289999999999</v>
+        <v>-11.9004</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
